--- a/25-08-31/leaderboard_250831.xlsx
+++ b/25-08-31/leaderboard_250831.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Program\LLM-Leaderboard\25-08-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B5A39-7646-45E0-AD33-45B84262459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD5E61D-A932-48D8-820E-2177488BB45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>OpenAI</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Knowledge and Reasoning</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>人类偏好</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>Long Context</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -239,6 +233,15 @@
   </si>
   <si>
     <t>综合分数</t>
+  </si>
+  <si>
+    <t>Long  Context</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>稀宇科技 MiniMax</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFEFEBA1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,18 +450,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,11 +474,11 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,14 +489,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEFEBA1"/>
+      <color rgb="FFE1DA4B"/>
+      <color rgb="FFE3E0AD"/>
+      <color rgb="FFE3DBA1"/>
+      <color rgb="FFFFEB84"/>
       <color rgb="FF611967"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF9999"/>
-      <color rgb="FFFFEB84"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -511,21 +518,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094E699E-28FF-E4C8-AD04-59D017265758}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F82168-3E7C-8818-E8A4-56F260913AB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,7 +555,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7048500"/>
+          <a:off x="0" y="6858000"/>
           <a:ext cx="15163800" cy="6486525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -588,10 +595,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090EC17F-FB27-B773-68A2-26384903FD0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FC8DE2-A92E-7656-C3AE-48BFC5F4E200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D96170-DA5F-4236-B72C-C8F0948F9FDE}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,17 +922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23" t="s">
@@ -933,91 +940,91 @@
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="25">
         <v>1447</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="25">
         <v>1220</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="25">
         <v>87.1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="25">
         <v>85.4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="25">
         <v>26.5</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="25">
         <v>94.3</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="25">
         <v>75.599999999999994</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>2.0125669467868961</v>
       </c>
     </row>
@@ -1031,34 +1038,34 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="25">
         <v>1422</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="25">
         <v>1175</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="25">
         <v>86.6</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="25">
         <v>87.7</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="25">
         <v>23.9</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="25">
         <v>92.7</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="25">
         <v>81.900000000000006</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="25">
         <v>75</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="25">
         <v>68</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>1.827546349737077</v>
       </c>
     </row>
@@ -1072,34 +1079,34 @@
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="25">
         <v>1456</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="25">
         <v>1255</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="25">
         <v>86.2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="25">
         <v>84.4</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="25">
         <v>21.1</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="25">
         <v>87.7</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="25">
         <v>80.099999999999994</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="25">
         <v>59.6</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="25">
         <v>66</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>1.7780095645426279</v>
       </c>
     </row>
@@ -1113,34 +1120,34 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="25">
         <v>1444</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="25">
         <v>1208</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="25">
         <v>85.3</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="25">
         <v>82.7</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="25">
         <v>20</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="25">
         <v>88.3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="25">
         <v>69.099999999999994</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="25">
         <v>69.3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>1.702542344670041</v>
       </c>
     </row>
@@ -1149,25 +1156,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="25">
         <v>1436</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
         <v>74.5</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7">
+      <c r="L7" s="25"/>
+      <c r="M7" s="8">
         <v>1.6074471358189311</v>
       </c>
     </row>
@@ -1181,32 +1188,32 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="25">
         <v>1391</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="25">
         <v>1188</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="25">
         <v>83.7</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="25">
         <v>82.8</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="25">
         <v>19.7</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="25">
         <v>90.7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="25">
         <v>68.8</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25">
         <v>68</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>1.5532907634097679</v>
       </c>
     </row>
@@ -1215,35 +1222,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="17">
+        <v>40</v>
+      </c>
+      <c r="D9" s="25">
         <v>1399</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>84.3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="25">
         <v>79</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="25">
         <v>15</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="25">
         <v>91</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="25">
         <v>78.8</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25">
         <v>67</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>1.437748707167319</v>
       </c>
     </row>
@@ -1252,39 +1259,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="25">
         <v>1394</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="25">
         <v>1186</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="25">
         <v>83.2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="25">
         <v>17.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="25">
         <v>90.7</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="25">
         <v>80.400000000000006</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="25">
         <v>68.099999999999994</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="25">
         <v>55</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>1.421491202244421</v>
       </c>
     </row>
@@ -1293,35 +1300,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="25">
         <v>1415</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25">
         <v>85.1</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="25">
         <v>77.900000000000006</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="25">
         <v>13</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="25">
         <v>89.7</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25">
         <v>53.3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>1.273916025340736</v>
       </c>
     </row>
@@ -1330,37 +1337,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="25">
         <v>1417</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25">
         <v>84.9</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="25">
         <v>81.3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="25">
         <v>14.9</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="25">
         <v>76</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="25">
         <v>77</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="25">
         <v>49.2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="25">
         <v>54.7</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>1.2658335499338109</v>
       </c>
     </row>
@@ -1369,35 +1376,35 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="25">
         <v>1355</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
         <v>80.8</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="25">
         <v>78.2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="25">
         <v>18.5</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="25">
         <v>93.4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="25">
         <v>63.9</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25">
         <v>50.7</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>1.264350137436614</v>
       </c>
     </row>
@@ -1406,33 +1413,33 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25">
         <v>83.2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="25">
         <v>79</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="25">
         <v>11.6</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="25">
         <v>73.3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="25">
         <v>69.5</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25">
         <v>61.7</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>1.2373289688613021</v>
       </c>
     </row>
@@ -1441,35 +1448,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="25">
         <v>1410</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>83.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="25">
         <v>78.2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="25">
         <v>12.2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="25">
         <v>80.7</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="25">
         <v>73.8</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25">
         <v>48.3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>1.1303725725955469</v>
       </c>
     </row>
@@ -1478,33 +1485,33 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25">
         <v>82.8</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="25">
         <v>79.099999999999994</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="25">
         <v>11.1</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="25">
         <v>84.7</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="25">
         <v>69.599999999999994</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25">
         <v>50.3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>1.084112863908909</v>
       </c>
     </row>
@@ -1513,37 +1520,37 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="25">
         <v>1398</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="25">
         <v>1186</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="25">
         <v>84.2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
         <v>77.7</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="25">
         <v>9.6</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="25">
         <v>74.3</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="25">
         <v>65.5</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25">
         <v>64.7</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>1.0520512575806751</v>
       </c>
     </row>
@@ -1552,33 +1559,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+        <v>40</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
         <v>80.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="25">
         <v>70.7</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="25">
         <v>72.3</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="25">
         <v>70.7</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25">
         <v>59</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>1.049382458081682</v>
       </c>
     </row>
@@ -1587,37 +1594,37 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="25">
         <v>1419</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="25">
         <v>1186</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="25">
         <v>87.3</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="25">
         <v>79.599999999999994</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="25">
         <v>11.7</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="25">
         <v>73.3</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="25">
         <v>63.6</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
         <v>33.700000000000003</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>1.010329187566835</v>
       </c>
     </row>
@@ -1626,33 +1633,33 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="25">
         <v>1363</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25">
         <v>80.2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="25">
         <v>77.3</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="25">
         <v>12.3</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25">
         <v>73.400000000000006</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="25">
         <v>61</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20">
+      <c r="L20" s="25"/>
+      <c r="M20" s="8">
         <v>0.96251242706442142</v>
       </c>
     </row>
@@ -1661,35 +1668,35 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="25">
         <v>1385</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="25">
         <v>1179</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="25">
         <v>83.7</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="25">
         <v>77.2</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="25">
         <v>10.3</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25">
         <v>47.3</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="25">
         <v>70.3</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21">
+      <c r="L21" s="25"/>
+      <c r="M21" s="8">
         <v>0.91250385720583205</v>
       </c>
     </row>
@@ -1697,36 +1704,36 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="25">
         <v>1368</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>81.599999999999994</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="25">
         <v>69.7</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="25">
         <v>61</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="25">
         <v>71.099999999999994</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
         <v>54.3</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>0.79752578285122544</v>
       </c>
     </row>
@@ -1735,35 +1742,35 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="25">
         <v>1421</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25">
         <v>82.4</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="25">
         <v>76.599999999999994</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="25">
         <v>7</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="25">
         <v>57</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="25">
         <v>55.6</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25">
         <v>51</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <v>0.78612588568887765</v>
       </c>
     </row>
@@ -1772,37 +1779,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="25">
         <v>1348</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="25">
         <v>1170</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="25">
         <v>78</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="25">
         <v>67.599999999999994</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="25">
         <v>83.7</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="25">
         <v>60.3</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25">
         <v>41.7</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>0.72235651955070201</v>
       </c>
     </row>
@@ -1816,28 +1823,28 @@
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="25">
         <v>1386</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25">
         <v>84.1</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="25">
         <v>74.7</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="25">
         <v>7.7</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25">
         <v>67.900000000000006</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="25">
         <v>48.9</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25">
+      <c r="L25" s="25"/>
+      <c r="M25" s="8">
         <v>0.69456078838215585</v>
       </c>
     </row>
@@ -1846,33 +1853,33 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17">
+        <v>41</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25">
         <v>81.400000000000006</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="25">
         <v>74.8</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="25">
         <v>6.8</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="25">
         <v>76.7</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="25">
         <v>73.7</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25">
         <v>34</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>0.66735173865352027</v>
       </c>
     </row>
@@ -1886,34 +1893,34 @@
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="25">
         <v>1410</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="25">
         <v>1172</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="25">
         <v>86</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="25">
         <v>70.099999999999994</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="25">
         <v>5.9</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="25">
         <v>36.299999999999997</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="25">
         <v>54.2</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="25">
         <v>72.5</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="25">
         <v>36</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>0.64262674012363863</v>
       </c>
     </row>
@@ -1922,33 +1929,33 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25">
         <v>75.900000000000006</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="25">
         <v>62.5</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="25">
         <v>6.4</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="25">
         <v>53.3</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="25">
         <v>59.3</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25">
         <v>51.3</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="8">
         <v>0.62644976488725146</v>
       </c>
     </row>
@@ -1962,32 +1969,32 @@
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="25">
         <v>1406</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="25">
         <v>1215</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="25">
         <v>80.900000000000006</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="25">
         <v>68.3</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="25">
         <v>60.3</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="25">
         <v>49.5</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25">
         <v>45.9</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="8">
         <v>0.60509101034282231</v>
       </c>
     </row>
@@ -2001,34 +2008,34 @@
       <c r="C30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="25">
         <v>1409</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="25">
         <v>1193</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="25">
         <v>80.599999999999994</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="25">
         <v>66.599999999999994</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="25">
         <v>45.7</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="25">
         <v>55</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="25">
         <v>61</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="8">
         <v>0.56689470297203115</v>
       </c>
     </row>
@@ -2037,29 +2044,29 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25">
         <v>79.8</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="25">
         <v>70.099999999999994</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="25">
         <v>7.1</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
+      <c r="I31" s="25"/>
+      <c r="J31" s="25">
         <v>32.1</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="8">
         <v>0.53545567704039843</v>
       </c>
     </row>
@@ -2068,46 +2075,46 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="25">
         <v>1383</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="25">
         <v>1173</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="25">
         <v>83.7</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="25">
         <v>68.3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="25">
         <v>4</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="25">
         <v>38</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="25">
         <v>44.9</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="25">
         <v>72.7</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="25">
         <v>44.3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>0.53290136614839378</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
-        <v>27</v>
+      <c r="B33" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -2117,17 +2124,17 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="19">
+      <c r="K33" s="20">
         <v>45900</v>
       </c>
-      <c r="L33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="20"/>
+      <c r="L33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2136,11 +2143,11 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="21"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2154,10 +2161,10 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A32">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2169,6 +2176,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F32">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G32">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2180,8 +2259,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E32">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="J3:J32">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2192,8 +2271,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F32">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2204,7 +2283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G32">
+  <conditionalFormatting sqref="K3:K32">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2216,7 +2295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H32">
+  <conditionalFormatting sqref="L3:L32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2228,56 +2307,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J32">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K32">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L32">
+  <conditionalFormatting sqref="M3:M32">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M32">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2301,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3774C4B1-ED1C-479C-884F-9311BFE899E3}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -2314,109 +2345,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D1" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="25">
         <v>1447</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="25">
         <v>1220</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="25">
         <v>87.1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="25">
         <v>85.4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="25">
         <v>26.5</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="25">
         <v>94.3</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="25">
         <v>75.599999999999994</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>2.0125669467868961</v>
       </c>
     </row>
@@ -2430,34 +2461,34 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="25">
         <v>1422</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="25">
         <v>1175</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="25">
         <v>86.6</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="25">
         <v>87.7</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="25">
         <v>23.9</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="25">
         <v>92.7</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="25">
         <v>81.900000000000006</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="25">
         <v>75</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="25">
         <v>68</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>1.827546349737077</v>
       </c>
     </row>
@@ -2471,34 +2502,34 @@
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="25">
         <v>1456</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="25">
         <v>1255</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="25">
         <v>86.2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="25">
         <v>84.4</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="25">
         <v>21.1</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="25">
         <v>87.7</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="25">
         <v>80.099999999999994</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="25">
         <v>59.6</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="25">
         <v>66</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>1.7780095645426279</v>
       </c>
     </row>
@@ -2512,34 +2543,34 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="25">
         <v>1444</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="25">
         <v>1208</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="25">
         <v>85.3</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="25">
         <v>82.7</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="25">
         <v>20</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="25">
         <v>88.3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="25">
         <v>69.099999999999994</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="25">
         <v>69.3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>1.702542344670041</v>
       </c>
     </row>
@@ -2548,25 +2579,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="25">
         <v>1436</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
         <v>74.5</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7">
+      <c r="L7" s="25"/>
+      <c r="M7" s="8">
         <v>1.6074471358189311</v>
       </c>
     </row>
@@ -2580,32 +2611,32 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="25">
         <v>1391</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="25">
         <v>1188</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="25">
         <v>83.7</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="25">
         <v>82.8</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="25">
         <v>19.7</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="25">
         <v>90.7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="25">
         <v>68.8</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25">
         <v>68</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>1.5532907634097679</v>
       </c>
     </row>
@@ -2614,35 +2645,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="17">
+        <v>40</v>
+      </c>
+      <c r="D9" s="25">
         <v>1399</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>84.3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="25">
         <v>79</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="25">
         <v>15</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="25">
         <v>91</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="25">
         <v>78.8</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25">
         <v>67</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>1.437748707167319</v>
       </c>
     </row>
@@ -2651,39 +2682,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="25">
         <v>1394</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="25">
         <v>1186</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="25">
         <v>83.2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="25">
         <v>17.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="25">
         <v>90.7</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="25">
         <v>80.400000000000006</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="25">
         <v>68.099999999999994</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="25">
         <v>55</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>1.421491202244421</v>
       </c>
     </row>
@@ -2692,35 +2723,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="25">
         <v>1415</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25">
         <v>85.1</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="25">
         <v>77.900000000000006</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="25">
         <v>13</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="25">
         <v>89.7</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="25">
         <v>78.400000000000006</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25">
         <v>53.3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>1.273916025340736</v>
       </c>
     </row>
@@ -2729,37 +2760,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="25">
         <v>1417</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25">
         <v>84.9</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="25">
         <v>81.3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="25">
         <v>14.9</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="25">
         <v>76</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="25">
         <v>77</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="25">
         <v>49.2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="25">
         <v>54.7</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>1.2658335499338109</v>
       </c>
     </row>
@@ -2768,35 +2799,35 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="25">
         <v>1355</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
         <v>80.8</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="25">
         <v>78.2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="25">
         <v>18.5</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="25">
         <v>93.4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="25">
         <v>63.9</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25">
         <v>50.7</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>1.264350137436614</v>
       </c>
     </row>
@@ -2805,33 +2836,33 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25">
         <v>83.2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="25">
         <v>79</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="25">
         <v>11.6</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="25">
         <v>73.3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="25">
         <v>69.5</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25">
         <v>61.7</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>1.2373289688613021</v>
       </c>
     </row>
@@ -2840,35 +2871,35 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="25">
         <v>1410</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>83.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="25">
         <v>78.2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="25">
         <v>12.2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="25">
         <v>80.7</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="25">
         <v>73.8</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25">
         <v>48.3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>1.1303725725955469</v>
       </c>
     </row>
@@ -2877,33 +2908,33 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25">
         <v>82.8</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="25">
         <v>79.099999999999994</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="25">
         <v>11.1</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="25">
         <v>84.7</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="25">
         <v>69.599999999999994</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25">
         <v>50.3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>1.084112863908909</v>
       </c>
     </row>
@@ -2912,37 +2943,37 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="25">
         <v>1398</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="25">
         <v>1186</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="25">
         <v>84.2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
         <v>77.7</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="25">
         <v>9.6</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="25">
         <v>74.3</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="25">
         <v>65.5</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25">
         <v>64.7</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>1.0520512575806751</v>
       </c>
     </row>
@@ -2951,33 +2982,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+        <v>40</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
         <v>80.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="25">
         <v>70.7</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="25">
         <v>72.3</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="25">
         <v>70.7</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25">
         <v>59</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>1.049382458081682</v>
       </c>
     </row>
@@ -2986,37 +3017,37 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="25">
         <v>1419</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="25">
         <v>1186</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="25">
         <v>87.3</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="25">
         <v>79.599999999999994</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="25">
         <v>11.7</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="25">
         <v>73.3</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="25">
         <v>63.6</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
         <v>33.700000000000003</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>1.010329187566835</v>
       </c>
     </row>
@@ -3025,33 +3056,33 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="25">
         <v>1363</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25">
         <v>80.2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="25">
         <v>77.3</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="25">
         <v>12.3</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25">
         <v>73.400000000000006</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="25">
         <v>61</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20">
+      <c r="L20" s="25"/>
+      <c r="M20" s="8">
         <v>0.96251242706442142</v>
       </c>
     </row>
@@ -3060,35 +3091,35 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="25">
         <v>1385</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="25">
         <v>1179</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="25">
         <v>83.7</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="25">
         <v>77.2</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="25">
         <v>10.3</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25">
         <v>47.3</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="25">
         <v>70.3</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21">
+      <c r="L21" s="25"/>
+      <c r="M21" s="8">
         <v>0.91250385720583205</v>
       </c>
     </row>
@@ -3096,36 +3127,36 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="25">
         <v>1368</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>81.599999999999994</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="25">
         <v>69.7</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="25">
         <v>61</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="25">
         <v>71.099999999999994</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
         <v>54.3</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>0.79752578285122544</v>
       </c>
     </row>
@@ -3134,35 +3165,35 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="25">
         <v>1421</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25">
         <v>82.4</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="25">
         <v>76.599999999999994</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="25">
         <v>7</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="25">
         <v>57</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="25">
         <v>55.6</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25">
         <v>51</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <v>0.78612588568887765</v>
       </c>
     </row>
@@ -3171,37 +3202,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="25">
         <v>1348</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="25">
         <v>1170</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="25">
         <v>78</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="25">
         <v>67.599999999999994</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="25">
         <v>83.7</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="25">
         <v>60.3</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25">
         <v>41.7</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>0.72235651955070201</v>
       </c>
     </row>
@@ -3215,28 +3246,28 @@
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="25">
         <v>1386</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25">
         <v>84.1</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="25">
         <v>74.7</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="25">
         <v>7.7</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25">
         <v>67.900000000000006</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="25">
         <v>48.9</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25">
+      <c r="L25" s="25"/>
+      <c r="M25" s="8">
         <v>0.69456078838215585</v>
       </c>
     </row>
@@ -3245,33 +3276,33 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17">
+        <v>41</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25">
         <v>81.400000000000006</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="25">
         <v>74.8</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="25">
         <v>6.8</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="25">
         <v>76.7</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="25">
         <v>73.7</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25">
         <v>34</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>0.66735173865352027</v>
       </c>
     </row>
@@ -3285,34 +3316,34 @@
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="25">
         <v>1410</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="25">
         <v>1172</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="25">
         <v>86</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="25">
         <v>70.099999999999994</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="25">
         <v>5.9</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="25">
         <v>36.299999999999997</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="25">
         <v>54.2</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="25">
         <v>72.5</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="25">
         <v>36</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>0.64262674012363863</v>
       </c>
     </row>
@@ -3321,33 +3352,33 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25">
         <v>75.900000000000006</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="25">
         <v>62.5</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="25">
         <v>6.4</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="25">
         <v>53.3</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="25">
         <v>59.3</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25">
         <v>51.3</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="8">
         <v>0.62644976488725146</v>
       </c>
     </row>
@@ -3361,32 +3392,32 @@
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="25">
         <v>1406</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="25">
         <v>1215</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="25">
         <v>80.900000000000006</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="25">
         <v>68.3</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="25">
         <v>60.3</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="25">
         <v>49.5</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25">
         <v>45.9</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="8">
         <v>0.60509101034282231</v>
       </c>
     </row>
@@ -3400,34 +3431,34 @@
       <c r="C30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="25">
         <v>1409</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="25">
         <v>1193</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="25">
         <v>80.599999999999994</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="25">
         <v>66.599999999999994</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="25">
         <v>45.7</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="25">
         <v>55</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="25">
         <v>61</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="8">
         <v>0.56689470297203115</v>
       </c>
     </row>
@@ -3436,29 +3467,29 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25">
         <v>79.8</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="25">
         <v>70.099999999999994</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="25">
         <v>7.1</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
+      <c r="I31" s="25"/>
+      <c r="J31" s="25">
         <v>32.1</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="8">
         <v>0.53545567704039843</v>
       </c>
     </row>
@@ -3467,46 +3498,46 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="25">
         <v>1383</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="25">
         <v>1173</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="25">
         <v>83.7</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="25">
         <v>68.3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="25">
         <v>4</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="25">
         <v>38</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="25">
         <v>44.9</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="25">
         <v>72.7</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="25">
         <v>44.3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>0.53290136614839378</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
-        <v>31</v>
+      <c r="B33" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -3516,17 +3547,17 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="19">
+      <c r="K33" s="20">
         <v>45900</v>
       </c>
-      <c r="L33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="20"/>
+      <c r="L33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -3535,9 +3566,9 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3549,7 +3580,7 @@
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:M34"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3625,7 +3656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32">
+  <conditionalFormatting sqref="I3:I32 J2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3637,7 +3668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J32">
+  <conditionalFormatting sqref="J3:J32 K2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
